--- a/Addin/ExcelVB001/DOC.xlsx
+++ b/Addin/ExcelVB001/DOC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\Addin\ExcelVB001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342C6663-ED42-4AF0-BF9B-18FEF7861EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B8D76E-E7AE-4C5A-8DA8-4EB3A91A5E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{759DEBBC-A9A8-42BF-B5AD-7621D3697B9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{759DEBBC-A9A8-42BF-B5AD-7621D3697B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
@@ -611,15 +611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>557211</xdr:colOff>
+      <xdr:colOff>676273</xdr:colOff>
       <xdr:row>107</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>509586</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>628648</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -634,8 +634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10915649" y="17940337"/>
-          <a:ext cx="6167437" cy="2000250"/>
+          <a:off x="11034711" y="17845087"/>
+          <a:ext cx="6167437" cy="2300288"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -705,7 +705,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>変更する</a:t>
+            <a:t>変更する事が可能</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
             <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
@@ -723,15 +723,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>114298</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>542923</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -746,7 +746,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9829799" y="24688799"/>
+          <a:off x="10258424" y="24926924"/>
           <a:ext cx="6167437" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9103459F-7383-485E-99A0-CE9EF79F0120}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V182" sqref="V182"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD154" sqref="AD154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1699,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFAE0DA-8EA9-4FA8-BE25-F515109B94E3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
